--- a/image/invoice.xlsx
+++ b/image/invoice.xlsx
@@ -964,45 +964,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="45.8046875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.87890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="37.75390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="45.63671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.7578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="38.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="30.38671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="93.453125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="30.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="93.6796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="26.71484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/invoice.xlsx
+++ b/image/invoice.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="258">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -391,10 +391,6 @@
   </si>
   <si>
     <t>Invoice.cancelledReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Reason for cancellation of this Invoice</t>
@@ -964,45 +960,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.43359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="45.63671875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.7578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.5234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="45.8046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.87890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="37.75390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="30.05078125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="93.6796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="30.38671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="93.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="26.6875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2366,16 +2362,16 @@
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2454,11 +2450,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2477,13 +2473,13 @@
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2534,7 +2530,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2549,25 +2545,25 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2586,17 +2582,17 @@
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2645,7 +2641,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2660,21 +2656,21 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2697,13 +2693,13 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2754,7 +2750,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2769,21 +2765,21 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2806,16 +2802,16 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2865,7 +2861,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2883,10 +2879,10 @@
         <v>118</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -2894,7 +2890,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2917,13 +2913,13 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2974,7 +2970,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2986,13 +2982,13 @@
         <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3003,7 +2999,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3026,13 +3022,13 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3083,25 +3079,25 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3112,7 +3108,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3141,7 +3137,7 @@
         <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>97</v>
@@ -3194,7 +3190,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3212,7 +3208,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3223,11 +3219,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3249,10 +3245,10 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>97</v>
@@ -3307,7 +3303,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3336,7 +3332,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3359,13 +3355,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3416,7 +3412,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3434,7 +3430,7 @@
         <v>118</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3445,7 +3441,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3468,13 +3464,13 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3525,7 +3521,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>49</v>
@@ -3540,13 +3536,13 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -3554,7 +3550,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3577,16 +3573,16 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3636,7 +3632,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3654,7 +3650,7 @@
         <v>91</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3665,7 +3661,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3688,16 +3684,16 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3747,7 +3743,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3776,7 +3772,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3799,13 +3795,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3856,7 +3852,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3868,13 +3864,13 @@
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -3885,7 +3881,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3908,13 +3904,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3965,25 +3961,25 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -3994,7 +3990,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4023,7 +4019,7 @@
         <v>95</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>97</v>
@@ -4076,7 +4072,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4094,7 +4090,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4105,11 +4101,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4131,10 +4127,10 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>97</v>
@@ -4189,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4218,7 +4214,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4241,13 +4237,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4298,7 +4294,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4327,7 +4323,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4350,13 +4346,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4407,7 +4403,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>49</v>
@@ -4422,10 +4418,10 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4436,7 +4432,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4459,13 +4455,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4516,7 +4512,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4528,13 +4524,13 @@
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AJ32" t="s" s="2">
+      <c r="AK32" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4545,7 +4541,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4568,13 +4564,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4625,25 +4621,25 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4654,7 +4650,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4683,7 +4679,7 @@
         <v>95</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>97</v>
@@ -4736,7 +4732,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4754,7 +4750,7 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -4765,11 +4761,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4791,10 +4787,10 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>97</v>
@@ -4849,7 +4845,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -4878,7 +4874,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4904,10 +4900,10 @@
         <v>68</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4937,11 +4933,11 @@
         <v>115</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
       </c>
@@ -4958,7 +4954,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>49</v>
@@ -4973,21 +4969,21 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5010,13 +5006,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5067,7 +5063,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5082,21 +5078,21 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5119,16 +5115,16 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5178,7 +5174,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5193,7 +5189,7 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
@@ -5207,7 +5203,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5230,16 +5226,16 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5289,7 +5285,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5304,7 +5300,7 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>40</v>
@@ -5318,7 +5314,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5344,10 +5340,10 @@
         <v>40</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5398,7 +5394,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5413,10 +5409,10 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5427,7 +5423,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5450,16 +5446,16 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5509,7 +5505,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5524,7 +5520,7 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>40</v>
@@ -5538,7 +5534,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5561,16 +5557,16 @@
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5620,7 +5616,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5635,7 +5631,7 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>40</v>
@@ -5649,7 +5645,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5672,16 +5668,16 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5731,7 +5727,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5760,7 +5756,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5783,13 +5779,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5840,7 +5836,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -5855,16 +5851,16 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
